--- a/MTH9821/hw7_9821_fall2023_fd1-ycsun.xlsx
+++ b/MTH9821/hw7_9821_fall2023_fd1-ycsun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yicheng.sun/Desktop/course_23fall/MTH9821/MTH9821/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361CB013-170F-BD4E-ADD9-5EF7E5A60F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9535237E-5937-804F-844F-D1479784D938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="1540" windowWidth="28540" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="2180" windowWidth="22480" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:AMK1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1306,7 +1306,7 @@
         <v>3.5348999999999998E-2</v>
       </c>
       <c r="J13" s="28">
-        <v>-35.330907000000003</v>
+        <v>-1.808942</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1353,7 +1353,7 @@
         <v>3.7474E-2</v>
       </c>
       <c r="J14" s="28">
-        <v>-36.074157999999997</v>
+        <v>-1.846997</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1400,7 +1400,7 @@
         <v>3.8376E-2</v>
       </c>
       <c r="J15" s="28">
-        <v>-36.124644000000004</v>
+        <v>-1.8495820000000001</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1447,7 +1447,7 @@
         <v>3.8899000000000003E-2</v>
       </c>
       <c r="J16" s="28">
-        <v>-35.973945999999998</v>
+        <v>-1.841866</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
